--- a/Py/DI-Bootcamp/Week7/Day3/Exercise/Ex3_Movies.xlsx
+++ b/Py/DI-Bootcamp/Week7/Day3/Exercise/Ex3_Movies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianatalis/Desktop/DevelopersInt/Py/DI-Bootcamp/Week7/Day3/Exercise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB7EEF3-B074-A74D-BEB0-0A2DC69ADE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072BA164-FAA1-2B41-9799-5B61072C8880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Films!$A$1:$N$1201</definedName>
     <definedName name="MovieRange">Films!$A$1:$N$1201</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterateDelta="9.9999999999999995E-7"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="27" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5933,19 +5933,22 @@
     <t>Row Labels</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of Nominations</t>
-  </si>
-  <si>
     <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Average of Nominations</t>
+  </si>
+  <si>
+    <t>AVR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5982,12 +5985,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -25296,7 +25306,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4F78999-7F4E-7248-91B6-54DD39780BA3}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4F78999-7F4E-7248-91B6-54DD39780BA3}" name="PivotTable2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="AVR" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:I29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -25463,8 +25473,13 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Nominations" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Average of Nominations" fld="12" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -25777,14 +25792,16 @@
   <dimension ref="A3:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" customWidth="1"/>
+    <col min="3" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -25792,7 +25809,7 @@
         <v>1967</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -25821,7 +25838,7 @@
         <v>1406</v>
       </c>
       <c r="I4" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -25829,26 +25846,26 @@
         <v>22</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>31</v>
+        <v>0.57407407407407407</v>
       </c>
       <c r="D5" s="4">
-        <v>2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="E5" s="4">
-        <v>22</v>
+        <v>0.44</v>
       </c>
       <c r="F5" s="4">
-        <v>5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>64</v>
+        <v>0.38554216867469882</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -25856,26 +25873,26 @@
         <v>15</v>
       </c>
       <c r="B6" s="4">
-        <v>13</v>
+        <v>1.1818181818181819</v>
       </c>
       <c r="C6" s="4">
-        <v>41</v>
+        <v>3.1538461538461537</v>
       </c>
       <c r="D6" s="4">
-        <v>3</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="E6" s="4">
-        <v>20</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="F6" s="4">
-        <v>45</v>
+        <v>1.3636363636363635</v>
       </c>
       <c r="G6" s="4">
-        <v>44</v>
+        <v>3.3846153846153846</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4">
-        <v>166</v>
+        <v>1.8043478260869565</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -25889,14 +25906,14 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
-        <v>12</v>
+        <v>0.75</v>
       </c>
       <c r="G7" s="4">
-        <v>79</v>
+        <v>1.4905660377358489</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4">
-        <v>91</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -25922,23 +25939,23 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
-        <v>33</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="D9" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E9" s="4">
-        <v>51</v>
+        <v>6.375</v>
       </c>
       <c r="F9" s="4">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="G9" s="4">
         <v>7</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
-        <v>142</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -25946,28 +25963,28 @@
         <v>38</v>
       </c>
       <c r="B10" s="4">
-        <v>9</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C10" s="4">
-        <v>67</v>
+        <v>1.2181818181818183</v>
       </c>
       <c r="D10" s="4">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="E10" s="4">
-        <v>1</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="F10" s="4">
-        <v>25</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="G10" s="4">
-        <v>40</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>144</v>
+        <v>1.0746268656716418</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -25978,23 +25995,23 @@
         <v>0</v>
       </c>
       <c r="C11" s="4">
-        <v>31</v>
+        <v>1.55</v>
       </c>
       <c r="D11" s="4">
-        <v>71</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <v>38</v>
+        <v>4.2222222222222223</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4">
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>140</v>
+        <v>2.2222222222222223</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -26010,12 +26027,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="4">
-        <v>24</v>
+        <v>4.8</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -26023,7 +26040,7 @@
         <v>520</v>
       </c>
       <c r="B13" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -26034,7 +26051,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4">
-        <v>2</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -26042,26 +26059,26 @@
         <v>190</v>
       </c>
       <c r="B14" s="4">
-        <v>16</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="C14" s="4">
-        <v>124</v>
+        <v>3.7575757575757578</v>
       </c>
       <c r="D14" s="4">
-        <v>69</v>
+        <v>3.2857142857142856</v>
       </c>
       <c r="E14" s="4">
-        <v>4</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="F14" s="4">
-        <v>141</v>
+        <v>4.40625</v>
       </c>
       <c r="G14" s="4">
-        <v>60</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4">
-        <v>414</v>
+        <v>3.8333333333333335</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -26076,11 +26093,11 @@
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4">
-        <v>2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -26095,19 +26112,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>31</v>
+        <v>2.2142857142857144</v>
       </c>
       <c r="F16" s="4">
-        <v>31</v>
+        <v>1.9375</v>
       </c>
       <c r="G16" s="4">
-        <v>20</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>82</v>
+        <v>1.7826086956521738</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -26116,19 +26133,19 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
-        <v>33</v>
+        <v>5.5</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
-        <v>29</v>
+        <v>5.8</v>
       </c>
       <c r="G17" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -26137,10 +26154,10 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
-        <v>14</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="D18" s="4">
-        <v>18</v>
+        <v>1.5</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4">
@@ -26149,7 +26166,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4">
-        <v>32</v>
+        <v>1.2307692307692308</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -26157,16 +26174,16 @@
         <v>200</v>
       </c>
       <c r="B19" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4">
-        <v>1</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -26174,7 +26191,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4">
-        <v>12</v>
+        <v>0.17910447761194029</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -26183,21 +26200,21 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4">
         <v>8</v>
       </c>
       <c r="F20" s="4">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="G20" s="4">
-        <v>86</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4">
-        <v>117</v>
+        <v>5.0869565217391308</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -26212,7 +26229,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -26220,7 +26237,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -26228,24 +26245,24 @@
         <v>34</v>
       </c>
       <c r="B22" s="4">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4">
-        <v>25</v>
+        <v>3.5714285714285716</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4">
-        <v>46</v>
+        <v>5.75</v>
       </c>
       <c r="G22" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4">
-        <v>111</v>
+        <v>5.0454545454545459</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -26256,10 +26273,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="4">
-        <v>18</v>
+        <v>4.5</v>
       </c>
       <c r="D23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -26268,7 +26285,7 @@
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4">
-        <v>27</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -26276,26 +26293,26 @@
         <v>49</v>
       </c>
       <c r="B24" s="4">
-        <v>15</v>
+        <v>1.3636363636363635</v>
       </c>
       <c r="C24" s="4">
-        <v>25</v>
+        <v>1.0869565217391304</v>
       </c>
       <c r="D24" s="4">
-        <v>15</v>
+        <v>1.25</v>
       </c>
       <c r="E24" s="4">
-        <v>58</v>
+        <v>1.7575757575757576</v>
       </c>
       <c r="F24" s="4">
-        <v>35</v>
+        <v>1.4583333333333333</v>
       </c>
       <c r="G24" s="4">
-        <v>38</v>
+        <v>5.4285714285714288</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4">
-        <v>186</v>
+        <v>1.6909090909090909</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -26310,17 +26327,17 @@
         <v>8</v>
       </c>
       <c r="E25" s="4">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="F25" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4">
         <v>7</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4">
-        <v>26</v>
+        <v>2.8888888888888888</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -26328,26 +26345,26 @@
         <v>84</v>
       </c>
       <c r="B26" s="4">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="C26" s="4">
-        <v>43</v>
+        <v>1.2285714285714286</v>
       </c>
       <c r="D26" s="4">
-        <v>35</v>
+        <v>1.4</v>
       </c>
       <c r="E26" s="4">
-        <v>16</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F26" s="4">
-        <v>26</v>
+        <v>1.04</v>
       </c>
       <c r="G26" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4">
-        <v>130</v>
+        <v>1.1711711711711712</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -26358,21 +26375,21 @@
         <v>4</v>
       </c>
       <c r="C27" s="4">
-        <v>53</v>
+        <v>2.65</v>
       </c>
       <c r="D27" s="4">
-        <v>16</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4">
-        <v>28</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="G27" s="4">
-        <v>29</v>
+        <v>7.25</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4">
-        <v>130</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -26383,52 +26400,52 @@
         <v>1</v>
       </c>
       <c r="C28" s="4">
-        <v>35</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="D28" s="4">
-        <v>11</v>
+        <v>1.2222222222222223</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
       </c>
       <c r="F28" s="4">
-        <v>30</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="G28" s="4">
-        <v>11</v>
+        <v>2.75</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4">
-        <v>88</v>
+        <v>2.3783783783783785</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="B29" s="4">
-        <v>107</v>
+        <v>1.5970149253731343</v>
       </c>
       <c r="C29" s="4">
-        <v>592</v>
+        <v>1.6962750716332378</v>
       </c>
       <c r="D29" s="4">
-        <v>267</v>
+        <v>1.4126984126984128</v>
       </c>
       <c r="E29" s="4">
-        <v>228</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="F29" s="4">
-        <v>568</v>
+        <v>2.1596958174904941</v>
       </c>
       <c r="G29" s="4">
-        <v>445</v>
+        <v>3.1560283687943262</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
       </c>
       <c r="I29" s="4">
-        <v>2207</v>
+        <v>1.8391666666666666</v>
       </c>
     </row>
   </sheetData>
